--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\O360-AI-master\O360-AI\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8207F979-9D02-45AD-ADF6-7749177C989C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EA37EE-6AB0-4022-ADE1-9F6BAD0E91E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="6" activeTab="8" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="112">
   <si>
     <t>Run</t>
   </si>
@@ -357,6 +357,18 @@
   </si>
   <si>
     <t>TC_CustomerRegisterModule</t>
+  </si>
+  <si>
+    <t>custName</t>
+  </si>
+  <si>
+    <t>raj</t>
+  </si>
+  <si>
+    <t>a&amp;j^$df*%bc</t>
+  </si>
+  <si>
+    <t>invalidCustId3</t>
   </si>
 </sst>
 </file>
@@ -1766,13 +1778,13 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F2"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="22" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="22" bestFit="1" customWidth="1"/>
@@ -1907,14 +1919,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0E4354-FC05-4BBC-B6A0-D3AD380E4808}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="9" width="20.85546875" style="31"/>
-    <col min="10" max="10" width="30.85546875" style="31" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="31" customWidth="1"/>
     <col min="11" max="16384" width="20.85546875" style="31"/>
   </cols>
   <sheetData>
@@ -1946,8 +1958,12 @@
       <c r="I1" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="J1" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>111</v>
+      </c>
       <c r="L1" s="20"/>
       <c r="M1" s="20"/>
     </row>
@@ -1977,10 +1993,14 @@
         <v>1030000148060</v>
       </c>
       <c r="I2" s="32">
-        <v>103000014806</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+        <v>102000015729</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\O360-AI-master\O360-AI\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EA37EE-6AB0-4022-ADE1-9F6BAD0E91E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A106FE95-3BA0-4044-8211-362BB913F931}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="6" activeTab="8" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="117">
   <si>
     <t>Run</t>
   </si>
@@ -369,6 +369,21 @@
   </si>
   <si>
     <t>invalidCustId3</t>
+  </si>
+  <si>
+    <t>houseNameAlphanumeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BLOCK 01</t>
+  </si>
+  <si>
+    <t>houseNameNumeric</t>
+  </si>
+  <si>
+    <t>houseName</t>
+  </si>
+  <si>
+    <t>KIZHAKUMPURAM</t>
   </si>
 </sst>
 </file>
@@ -1917,36 +1932,38 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0E4354-FC05-4BBC-B6A0-D3AD380E4808}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.85546875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="9" width="20.85546875" style="31"/>
     <col min="10" max="10" width="13.28515625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="20.85546875" style="31"/>
+    <col min="11" max="11" width="20.85546875" style="31"/>
+    <col min="12" max="12" width="26.140625" style="31" customWidth="1"/>
+    <col min="13" max="16384" width="20.85546875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>90</v>
       </c>
       <c r="G1" s="20" t="s">
@@ -1964,10 +1981,17 @@
       <c r="K1" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="L1" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>107</v>
       </c>
@@ -2001,8 +2025,15 @@
       <c r="K2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="3">
+        <v>123456</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\O360-AI-master\O360-AI\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gopinath.elumalai\Downloads\NBFC_CLS\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A106FE95-3BA0-4044-8211-362BB913F931}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="6" activeTab="8" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="4260" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="TimeSheetModule" sheetId="3" r:id="rId1"/>
@@ -22,8 +21,9 @@
     <sheet name="EWCLeaveRequest" sheetId="7" r:id="rId7"/>
     <sheet name="Customer_CustSearch" sheetId="11" r:id="rId8"/>
     <sheet name="Customer_CustRegister" sheetId="10" r:id="rId9"/>
+    <sheet name="Customer_CustRating" sheetId="12" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="130">
   <si>
     <t>Run</t>
   </si>
@@ -384,17 +384,56 @@
   </si>
   <si>
     <t>KIZHAKUMPURAM</t>
+  </si>
+  <si>
+    <t>TC_CustomerRatingModule</t>
+  </si>
+  <si>
+    <t>gopinath</t>
+  </si>
+  <si>
+    <t>Gopi@7hills</t>
+  </si>
+  <si>
+    <t>custID</t>
+  </si>
+  <si>
+    <t>customerName</t>
+  </si>
+  <si>
+    <t>AJITHAMOL</t>
+  </si>
+  <si>
+    <t>agency</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>19/12/2024</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Pqr</t>
+  </si>
+  <si>
+    <t>aas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="000000000000"/>
     <numFmt numFmtId="165" formatCode="0000000000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +462,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -478,7 +523,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -560,6 +605,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -875,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067DCD9D-336F-4B7B-9363-04AE9D95019D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN2"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
@@ -1078,8 +1127,157 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="31" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="S1" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="T1" s="31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="31" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="3">
+        <v>10300001480</v>
+      </c>
+      <c r="H2" s="33">
+        <v>1030000148060</v>
+      </c>
+      <c r="I2" s="32">
+        <v>102000015729</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="3">
+        <v>123456</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="O2" s="34">
+        <v>103000014806</v>
+      </c>
+      <c r="P2" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="R2" s="31">
+        <v>4</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="T2" s="31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F5BEBC-63DB-4F03-9AF6-8CE69341974D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1161,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52F80EF-30F9-4CBE-97A9-F5DB22DCED8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1235,7 +1433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A4DB3F-2AA2-4FA2-81DE-DE19EC1C5288}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1374,7 +1572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDD8DAA-E0A8-4A27-994A-B8C1DDBA60FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1436,7 +1634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A776D0A-C93D-4530-8ACF-529782C02B1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1606,7 +1804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6371D0A3-708E-4B63-973F-AE2BCF9E4611}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1789,7 +1987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43876BD-E772-4993-8A82-594262F04F89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1924,18 +2122,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{D0E94D23-5A52-4AEE-B35B-D5A75550EC1B}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0E4354-FC05-4BBC-B6A0-D3AD380E4808}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.85546875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2037,7 +2235,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{AE9DDA39-D293-45BF-A68F-AC222C390A8B}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="4260" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="4260" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="TimeSheetModule" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="Customer_CustSearch" sheetId="11" r:id="rId8"/>
     <sheet name="Customer_CustRegister" sheetId="10" r:id="rId9"/>
     <sheet name="Customer_CustRating" sheetId="12" r:id="rId10"/>
+    <sheet name="User_creation" sheetId="13" r:id="rId11"/>
+    <sheet name="InstitutionalCustomer" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="268">
   <si>
     <t>Run</t>
   </si>
@@ -423,17 +425,433 @@
   </si>
   <si>
     <t>aas</t>
+  </si>
+  <si>
+    <t>TC_User_CreationModule</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>adm@123</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Naveen</t>
+  </si>
+  <si>
+    <t>emailID</t>
+  </si>
+  <si>
+    <t>g@gmail.com</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>machineID</t>
+  </si>
+  <si>
+    <t>invalidUserId</t>
+  </si>
+  <si>
+    <t>345%%</t>
+  </si>
+  <si>
+    <t>invalidName</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>67%%</t>
+  </si>
+  <si>
+    <t>userId1</t>
+  </si>
+  <si>
+    <t>userId2</t>
+  </si>
+  <si>
+    <t>Eole</t>
+  </si>
+  <si>
+    <t>Eolee</t>
+  </si>
+  <si>
+    <t>Eoleee</t>
+  </si>
+  <si>
+    <t>TC_InstitutionalCustomer Module</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>DateOfIncOp</t>
+  </si>
+  <si>
+    <t>RegdTo</t>
+  </si>
+  <si>
+    <t>REGISTRAR OFFICE</t>
+  </si>
+  <si>
+    <t>RegNo</t>
+  </si>
+  <si>
+    <t>as43%^</t>
+  </si>
+  <si>
+    <t>RegPalce</t>
+  </si>
+  <si>
+    <t>yy&amp;87*</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>cst</t>
+  </si>
+  <si>
+    <t>34er&amp;*</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>tin</t>
+  </si>
+  <si>
+    <t>ii((56</t>
+  </si>
+  <si>
+    <t>boardResolution</t>
+  </si>
+  <si>
+    <t>87yu^%</t>
+  </si>
+  <si>
+    <t>operatorName</t>
+  </si>
+  <si>
+    <t>Bg56%^</t>
+  </si>
+  <si>
+    <t>tanNo</t>
+  </si>
+  <si>
+    <t>faxNo</t>
+  </si>
+  <si>
+    <t>MobileNo</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>ABCD12345A</t>
+  </si>
+  <si>
+    <t>gstNo</t>
+  </si>
+  <si>
+    <t>22AAAAA0000A1Z5</t>
+  </si>
+  <si>
+    <t>cinNo</t>
+  </si>
+  <si>
+    <t>agj67%$</t>
+  </si>
+  <si>
+    <t>ShareHoldingByIndividuals</t>
+  </si>
+  <si>
+    <t>ShareHoldingByEntity</t>
+  </si>
+  <si>
+    <t>DPIITNumber</t>
+  </si>
+  <si>
+    <t>ad%^88</t>
+  </si>
+  <si>
+    <t>KSUM_Number</t>
+  </si>
+  <si>
+    <t>a**00a</t>
+  </si>
+  <si>
+    <t>ExternalCreditRating</t>
+  </si>
+  <si>
+    <t>jh87^%</t>
+  </si>
+  <si>
+    <t>nameInOwnerDetails</t>
+  </si>
+  <si>
+    <t>Jacker</t>
+  </si>
+  <si>
+    <t>designationInOwnerDetails</t>
+  </si>
+  <si>
+    <t>Contractor</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>buildingNo</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>residence</t>
+  </si>
+  <si>
+    <t>phoneNo</t>
+  </si>
+  <si>
+    <t>electricPostNo</t>
+  </si>
+  <si>
+    <t>14R</t>
+  </si>
+  <si>
+    <t>15G</t>
+  </si>
+  <si>
+    <t>16TY</t>
+  </si>
+  <si>
+    <t>4226GHijs</t>
+  </si>
+  <si>
+    <t>gdghdj36378</t>
+  </si>
+  <si>
+    <t>tw79</t>
+  </si>
+  <si>
+    <t>pinNo</t>
+  </si>
+  <si>
+    <t>gsh6788</t>
+  </si>
+  <si>
+    <t>regional_building</t>
+  </si>
+  <si>
+    <t>gsg636</t>
+  </si>
+  <si>
+    <t>fg67</t>
+  </si>
+  <si>
+    <t>regional_DoorNo</t>
+  </si>
+  <si>
+    <t>regional_place</t>
+  </si>
+  <si>
+    <t>regional_city</t>
+  </si>
+  <si>
+    <t>regional_street</t>
+  </si>
+  <si>
+    <t>regional_residence</t>
+  </si>
+  <si>
+    <t>regional_phoneNo</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>gsg667</t>
+  </si>
+  <si>
+    <t>ggjkd779</t>
+  </si>
+  <si>
+    <t>hsggsg77</t>
+  </si>
+  <si>
+    <t>bsjsjs67</t>
+  </si>
+  <si>
+    <t>nssjsj778</t>
+  </si>
+  <si>
+    <t>nsjsjs67</t>
+  </si>
+  <si>
+    <t>regiona;_buildingNo</t>
+  </si>
+  <si>
+    <t>gsg67</t>
+  </si>
+  <si>
+    <t>regional_pinNo</t>
+  </si>
+  <si>
+    <t>DoorNo</t>
+  </si>
+  <si>
+    <t>childWindow_custID</t>
+  </si>
+  <si>
+    <t>identityNo</t>
+  </si>
+  <si>
+    <t>issuedAuthority</t>
+  </si>
+  <si>
+    <t>afg516</t>
+  </si>
+  <si>
+    <t>hsh627</t>
+  </si>
+  <si>
+    <t>issueDate</t>
+  </si>
+  <si>
+    <t>ValidUpTo</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>gsgsjksk337</t>
+  </si>
+  <si>
+    <t>ward</t>
+  </si>
+  <si>
+    <t>panchayathWard</t>
+  </si>
+  <si>
+    <t>bankWard</t>
+  </si>
+  <si>
+    <t>surveyNo</t>
+  </si>
+  <si>
+    <t>resurveyNo</t>
+  </si>
+  <si>
+    <t>wet</t>
+  </si>
+  <si>
+    <t>dry</t>
+  </si>
+  <si>
+    <t>Kite</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>dhdh637</t>
+  </si>
+  <si>
+    <t>bankAccNo</t>
+  </si>
+  <si>
+    <t>RetypeAccNo</t>
+  </si>
+  <si>
+    <t>bank_stateDate</t>
+  </si>
+  <si>
+    <t>balanceAsOn</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>creditCardNo</t>
+  </si>
+  <si>
+    <t>dpid</t>
+  </si>
+  <si>
+    <t>demataccNo</t>
+  </si>
+  <si>
+    <t>dd637</t>
+  </si>
+  <si>
+    <t>risk_remarks</t>
+  </si>
+  <si>
+    <t>actSplIns</t>
+  </si>
+  <si>
+    <t>te6^&amp;</t>
+  </si>
+  <si>
+    <t>hshd73778((</t>
+  </si>
+  <si>
+    <t>msmeRegistNo</t>
+  </si>
+  <si>
+    <t>ssh636^*</t>
+  </si>
+  <si>
+    <t>DAAPA1234E</t>
+  </si>
+  <si>
+    <t>invalid_issueDate</t>
+  </si>
+  <si>
+    <t>13R</t>
+  </si>
+  <si>
+    <t>01/34/2025</t>
+  </si>
+  <si>
+    <t>ownserDetails_custId</t>
+  </si>
+  <si>
+    <t>30/09/2301</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="000000000000"/>
     <numFmt numFmtId="165" formatCode="0000000000000"/>
+    <numFmt numFmtId="166" formatCode="000000000000000"/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,8 +887,20 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A3E3E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,6 +910,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,7 +959,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -610,6 +1046,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1131,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,6 +1596,7 @@
     <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1273,6 +1730,686 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="13">
+        <v>7899996542</v>
+      </c>
+      <c r="K2" s="13">
+        <v>102</v>
+      </c>
+      <c r="L2" s="13">
+        <v>3</v>
+      </c>
+      <c r="M2" s="13">
+        <v>5</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q2" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="R2" s="38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CD2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="BG13" sqref="BG13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="11" max="11" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.85546875" customWidth="1"/>
+    <col min="33" max="33" width="15.7109375" customWidth="1"/>
+    <col min="39" max="39" width="12" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.28515625" customWidth="1"/>
+    <col min="42" max="42" width="11" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.85546875" customWidth="1"/>
+    <col min="52" max="52" width="11" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.7109375" customWidth="1"/>
+    <col min="58" max="59" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="71" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="16.85546875" customWidth="1"/>
+    <col min="73" max="73" width="22.7109375" customWidth="1"/>
+    <col min="79" max="79" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="56.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:82" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="U1" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="V1" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="W1" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="X1" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA1" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB1" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC1" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE1" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF1" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG1" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH1" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="AI1" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ1" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK1" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL1" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM1" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN1" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO1" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="AP1" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="AQ1" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="AR1" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS1" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="AT1" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="AU1" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="AV1" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="AW1" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="AX1" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="AY1" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="AZ1" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="BA1" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB1" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="BC1" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="BD1" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="BE1" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF1" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="BG1" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="BH1" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="BI1" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="BJ1" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="BK1" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="BL1" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="BM1" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="BN1" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="BO1" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="BP1" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="BQ1" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="BR1" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="BS1" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="BT1" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="BU1" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="BV1" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="BW1" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="BX1" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="BY1" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="BZ1" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="CA1" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="CB1" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="CC1" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD1" s="36" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:82" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="13">
+        <v>7899996542</v>
+      </c>
+      <c r="K2" s="41">
+        <v>45940</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="M2" t="s">
+        <v>158</v>
+      </c>
+      <c r="N2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O2" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="P2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q2">
+        <v>678655</v>
+      </c>
+      <c r="R2" t="s">
+        <v>166</v>
+      </c>
+      <c r="S2" t="s">
+        <v>168</v>
+      </c>
+      <c r="T2" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="V2">
+        <v>19075551234</v>
+      </c>
+      <c r="W2">
+        <v>7899996742</v>
+      </c>
+      <c r="X2" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA2">
+        <v>6378</v>
+      </c>
+      <c r="AB2">
+        <v>1567</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AO2">
+        <v>357892</v>
+      </c>
+      <c r="AP2">
+        <v>7899996527</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AY2">
+        <v>766577</v>
+      </c>
+      <c r="AZ2">
+        <v>8977667786</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>219</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>218</v>
+      </c>
+      <c r="BC2" s="34">
+        <v>103000012468</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>231</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>232</v>
+      </c>
+      <c r="BF2" s="45">
+        <v>146016</v>
+      </c>
+      <c r="BG2" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>236</v>
+      </c>
+      <c r="BI2">
+        <v>3636</v>
+      </c>
+      <c r="BJ2">
+        <v>36637</v>
+      </c>
+      <c r="BK2">
+        <v>63636</v>
+      </c>
+      <c r="BL2">
+        <v>13</v>
+      </c>
+      <c r="BM2">
+        <v>14</v>
+      </c>
+      <c r="BN2">
+        <v>12</v>
+      </c>
+      <c r="BO2">
+        <v>13</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>244</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>246</v>
+      </c>
+      <c r="BR2" s="43">
+        <v>123456789123456</v>
+      </c>
+      <c r="BS2" s="43">
+        <v>123456789123456</v>
+      </c>
+      <c r="BT2" s="45">
+        <v>45658</v>
+      </c>
+      <c r="BU2" s="45">
+        <v>45658</v>
+      </c>
+      <c r="BW2">
+        <v>242573</v>
+      </c>
+      <c r="BX2">
+        <v>3637</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>255</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>258</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>259</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>261</v>
+      </c>
+      <c r="CC2" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="CD2" s="34">
+        <v>103000012745</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="X2" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="4260" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="4260" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="TimeSheetModule" sheetId="3" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Customer_CustRating" sheetId="12" r:id="rId10"/>
     <sheet name="User_creation" sheetId="13" r:id="rId11"/>
     <sheet name="InstitutionalCustomer" sheetId="14" r:id="rId12"/>
+    <sheet name="LoanOpening" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="289">
   <si>
     <t>Run</t>
   </si>
@@ -839,6 +840,69 @@
   </si>
   <si>
     <t>30/09/2301</t>
+  </si>
+  <si>
+    <t>TC_LoanOpeningModule</t>
+  </si>
+  <si>
+    <t>resolutionNo</t>
+  </si>
+  <si>
+    <t>resolutionDate</t>
+  </si>
+  <si>
+    <t>equitableMortRegNo</t>
+  </si>
+  <si>
+    <t>emrDate</t>
+  </si>
+  <si>
+    <t>agentCode</t>
+  </si>
+  <si>
+    <t>dsaCode</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>rwwy</t>
+  </si>
+  <si>
+    <t>twywu</t>
+  </si>
+  <si>
+    <t>itemQty</t>
+  </si>
+  <si>
+    <t>itemWeight</t>
+  </si>
+  <si>
+    <t>purity</t>
+  </si>
+  <si>
+    <t>sanctioned</t>
+  </si>
+  <si>
+    <t>loginUserName1</t>
+  </si>
+  <si>
+    <t>loginValidPassword1</t>
+  </si>
+  <si>
+    <t>swap</t>
+  </si>
+  <si>
+    <t>honey10</t>
+  </si>
+  <si>
+    <t>nomineeCustID</t>
+  </si>
+  <si>
+    <t>dummyCustID</t>
   </si>
 </sst>
 </file>
@@ -849,7 +913,7 @@
     <numFmt numFmtId="164" formatCode="000000000000"/>
     <numFmt numFmtId="165" formatCode="0000000000000"/>
     <numFmt numFmtId="166" formatCode="000000000000000"/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1065,7 +1129,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1874,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="BG13" sqref="BG13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2410,6 +2474,174 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="7" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="U1" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="V1" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="W1" s="36" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="34">
+        <v>123456789012</v>
+      </c>
+      <c r="H2" s="34">
+        <v>103000014482</v>
+      </c>
+      <c r="I2" s="34">
+        <v>103000013606</v>
+      </c>
+      <c r="J2">
+        <v>12</v>
+      </c>
+      <c r="K2" s="45">
+        <v>45575</v>
+      </c>
+      <c r="L2">
+        <v>12</v>
+      </c>
+      <c r="M2" s="45">
+        <v>45575</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>277</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2">
+        <v>12</v>
+      </c>
+      <c r="T2">
+        <v>22</v>
+      </c>
+      <c r="U2">
+        <v>12000</v>
+      </c>
+      <c r="V2" t="s">
+        <v>285</v>
+      </c>
+      <c r="W2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -2482,7 +2482,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
